--- a/_extras/Smith-Waterman Algorithm.xlsx
+++ b/_extras/Smith-Waterman Algorithm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wyim/Lecture/BCH709/_extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB1F3508-B5F6-1F4E-A835-416E0E36B55A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{580F963C-B274-E948-BAA2-E057BF0BC74D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2544,7 +2544,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
